--- a/docs/LTA1_C/LTA1_C_30.07.24d_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792784.323809</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731792784.3977711</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792784.323809.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792784.3977711.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>286.24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792784.4246993</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731792784.5656512</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792784.4246993.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792784.5656512.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>286.87</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>285.65</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.220000000000027</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792784.7102497</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731792785.0079396</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792784.7102497.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792785.0079396.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>284.83</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>286.42</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.590000000000032</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792785.3197596</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731792792.867772</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792785.3197596.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792792.867772.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>286.69</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>289.19</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.8699999999999999</v>
       </c>
     </row>
@@ -747,95 +787,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792793.1323874</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731792793.1323874.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731792793.1323874.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>289.8</v>
       </c>
-      <c r="J7" t="n">
-        <v>289.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>290.84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1.039999999999964</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792794.7639585</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731792794.900908</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792794.7639585.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792794.900908.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.56</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>130.97</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5900000000000034</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792794.9825437</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731792795.1460502</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792794.9825437.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792795.1460502.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>130.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>131.19</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792795.3961833</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731792796.5037293</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792795.3961833.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792796.5037293.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.68</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.52</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792797.4650123</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731792802.9331586</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792797.4650123.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792802.9331586.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.37</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.6299999999999955</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792803.0145967</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731792803.1352332</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792803.0145967.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792803.1352332.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.68</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.35</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.6699999999999875</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1051,43 +1127,49 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792803.2413154</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792803.2413154.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792803.2413154.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.68</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>132.68</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792803.4987633</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731792803.562227</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792803.4987633.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792803.562227.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6754.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6735</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>19.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792803.6370373</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731792804.062315</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792803.6370373.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792804.062315.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6720.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6733.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>13</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792804.2621934</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731792804.325839</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792804.2621934.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792804.325839.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6715.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6739</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>23.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792804.9474018</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731792805.1434002</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792804.9474018.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792805.1434002.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6747</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6731.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>15.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731792805.4367666</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731792805.7865396</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792805.4367666.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792805.7865396.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6749</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6738.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>10.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731792806.5202162</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731792807.4184744</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792806.5202162.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792807.4184744.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6718.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6743.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>25</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731792807.8760824</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731792811.9690294</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792807.8760824.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792811.9690294.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6762</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6779.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-17.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731792812.1832685</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731792813.0188704</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792812.1832685.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792813.0188704.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6780</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6809.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>29.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731792814.6471307</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731792814.7098632</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792814.6471307.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792814.7098632.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>501</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>504.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3.300000000000011</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731792814.737816</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731792814.8315432</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792814.737816.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792814.8315432.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>504.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>501.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.899999999999977</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731792814.8913178</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731792815.1467845</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792814.8913178.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792815.1467845.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>496.95</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>502.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>5.650000000000034</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731792815.3602529</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731792823.3066156</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792815.3602529.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792823.3066156.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>504.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>510.05</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-5.650000000000034</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-1.12</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731792823.7164512</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731792824.0212772</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792823.7164512.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792824.0212772.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>509.65</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>511.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.75</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731792824.8371012</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731792824.9573047</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792824.8371012.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792824.9573047.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>509.7</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>511.35</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.650000000000034</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1823,95 +1989,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731792825.0337634</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731792825.0337634.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731792825.0337634.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>509.95</v>
       </c>
-      <c r="J28" t="n">
-        <v>509.95</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>510.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1500000000000341</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731792825.1274843</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731792825.315119</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.1274843.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.315119.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1020.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1023.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731792825.3418937</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731792825.4418573</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.3418937.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.4418573.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1028.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1023.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731792825.5835748</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731792825.7685091</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.5835748.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.7685091.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1011.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1024.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>13.39999999999998</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>1.32</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731792825.796396</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731792832.3807113</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792825.796396.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792832.3807113.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1027.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-15.39999999999986</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731792832.685738</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731792832.8548064</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792832.685738.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792832.8548064.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1050.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1044</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731792833.6604817</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731792834.036284</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792833.6604817.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792834.036284.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>125.14</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731792834.2452466</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731792834.478425</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792834.2452466.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792834.478425.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>124.22</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>124.9</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731792834.848457</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731792842.2830663</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792834.848457.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792842.2830663.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>125.38</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>127.06</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.680000000000007</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-1.34</v>
       </c>
     </row>
@@ -2283,95 +2503,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731792843.3738925</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792843.3738925.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792843.3738925.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127.44</v>
       </c>
-      <c r="J37" t="n">
-        <v>127.44</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>127.58</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731792843.8618612</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731792844.0646122</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792843.8618612.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792844.0646122.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>163.02</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>163.22</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731792844.110553</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731792844.3443558</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792844.110553.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792844.3443558.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>164.18</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>164.06</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731792844.4588456</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731792844.6467433</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792844.4588456.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792844.6467433.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>163.08</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>164.06</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.9799999999999898</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731792846.3097546</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731792849.4201567</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792846.3097546.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792849.4201567.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>165.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>164.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731792849.5935144</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731792852.3263876</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792849.5935144.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792852.3263876.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>165.54</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>166.14</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.5999999999999943</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -2587,95 +2843,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731792852.7128332</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792852.7128332.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792852.7128332.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>166.14</v>
       </c>
-      <c r="J43" t="n">
-        <v>166.14</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>165.86</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.2799999999999727</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731792853.3553963</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731792853.5017736</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792853.3553963.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792853.5017736.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>51.635</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>51.535</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731792853.5338373</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731792854.108806</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792853.5338373.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792854.108806.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>51.35</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>51.53</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731792861.485064</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731792862.0377095</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792861.485064.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792862.0377095.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>51.375</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>51.345</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731792862.1129775</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731792862.9946582</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792862.1129775.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792862.9946582.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>51.205</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>51.465</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731792863.7406445</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731792863.8087509</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792863.7406445.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792863.8087509.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1412.4</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>9.600000000000136</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731792864.00226</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731792864.1780272</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792864.00226.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792864.1780272.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1414.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1407.6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>7</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731792864.4094796</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731792868.647684</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792864.4094796.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792868.647684.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1415</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1417.6</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731792868.6905448</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731792868.7320843</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792868.6905448.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792868.7320843.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1416.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1419.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731792868.9249787</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731792869.0116374</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792868.9249787.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792869.0116374.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1416.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1420</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731792869.253126</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731792869.503417</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792869.253126.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792869.503417.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1423</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1418.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731792871.1332457</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731792872.330691</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792871.1332457.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792872.330691.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731792872.3719177</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731792872.4428937</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792872.3719177.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792872.4428937.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1422.8</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731792872.597701</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731792872.6809666</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792872.597701.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792872.6809666.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1419</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1421</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>2</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3307,95 +3647,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731792872.8188283</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731792872.8188283.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731792872.8188283.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1419</v>
       </c>
-      <c r="J57" t="n">
-        <v>1419</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1418.8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731792873.0735197</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731792873.1571455</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.0735197.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.1571455.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>59.81</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>59.96</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731792873.1711092</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731792873.2784774</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.1711092.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.2784774.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>59.96</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>59.86</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731792873.4454305</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731792873.5990846</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.4454305.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.5990846.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>59.64</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>59.9</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731792873.6400073</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731792873.803734</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.6400073.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.803734.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>60.13</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>59.92</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731792873.9610047</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731792875.7471344</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792873.9610047.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792875.7471344.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>60.24</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>60.25</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731792876.6243944</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731792881.2993338</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792876.6243944.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792881.2993338.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>60.68</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>60.83</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.1499999999999986</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3663,51 +4045,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731792881.3791718</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731792881.7798326</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792881.3791718.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792881.7798326.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>60.58</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>60.87</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -3715,51 +4103,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731792882.155938</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731792883.1683085</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792882.155938.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792883.1683085.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.61</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>60.78</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3767,95 +4161,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731792883.416105</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731792883.416105.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731792883.416105.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.6</v>
       </c>
-      <c r="J66" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>60.65</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731792883.6579714</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731792884.7614348</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792883.6579714.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792884.7614348.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>56.02</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>56.44</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.4199999999999946</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3863,51 +4269,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731792885.0062685</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731792890.2511163</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792885.0062685.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792890.2511163.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>56.74</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>56.85</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3915,95 +4327,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731792892.1661875</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731792892.1661875.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731792892.1661875.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>56.83</v>
       </c>
-      <c r="J69" t="n">
-        <v>56.83</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>56.88</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.05000000000000426</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731792894.3193045</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731792894.6057637</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792894.3193045.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792894.6057637.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>141.34</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>141.28</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731792895.2361376</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731792895.8491442</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792895.2361376.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792895.8491442.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>142.18</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>141.2</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.9800000000000182</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731792901.2724733</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731792903.2733538</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792901.2724733.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792903.2733538.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>141.88</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>141.36</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4115,95 +4551,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731792903.4306602</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731792903.4306602.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731792903.4306602.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>141.1</v>
       </c>
-      <c r="J73" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>141.2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731792904.2153451</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731792904.2853677</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.2153451.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.2853677.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>51.88</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>51.89</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731792904.3134227</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731792904.424015</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.3134227.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.424015.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>52.32</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>51.74</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731792904.4939616</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731792904.7974505</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.4939616.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.7974505.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>51.38</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>52.13</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.75</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -4315,51 +4775,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731792904.8124104</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731792906.1845284</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792904.8124104.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792906.1845284.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>52.13</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>52.06</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4367,51 +4833,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731792907.1743398</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731792910.6858737</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792907.1743398.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792910.6858737.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>53.04</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>53.27</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.230000000000004</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -4419,51 +4891,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731792912.463606</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731792913.1910498</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792912.463606.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792913.1910498.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>54.1</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>53.7</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -4471,51 +4949,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731792914.8650885</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731792914.944842</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792914.8650885.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792914.944842.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>363.41</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>367.23</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>3.819999999999993</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -4523,51 +5007,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731792915.143012</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731792915.8951075</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792915.143012.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792915.8951075.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>362.43</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>366</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>3.569999999999993</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.9900000000000001</v>
       </c>
     </row>
@@ -4575,51 +5065,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731792916.0267804</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731792923.4132164</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792916.0267804.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792923.4132164.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>368.93</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>372.73</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-3.800000000000011</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-1.03</v>
       </c>
     </row>
@@ -4627,51 +5123,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731792923.6431787</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731792923.9286308</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792923.6431787.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792923.9286308.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>375.19</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>372.6</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>2.589999999999975</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -4679,95 +5181,107 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731792924.3675222</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731792924.3675222.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731792924.3675222.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>374.94</v>
       </c>
-      <c r="J84" t="n">
-        <v>374.94</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>374.48</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.4599999999999795</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731792924.954166</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731792925.2976704</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792924.954166.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792925.2976704.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.096</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.09588000000000001</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.0001199999999999951</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4775,51 +5289,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731792925.4273937</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731792925.619918</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792925.4273937.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792925.619918.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.09548000000000001</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.09618</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.0006999999999999923</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -4827,51 +5347,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731792925.702573</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731792925.8605359</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792925.702573.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792925.8605359.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.09548000000000001</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.09616000000000001</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.00068</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4879,51 +5405,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731792926.6781254</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731792930.0617557</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792926.6781254.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792930.0617557.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.09636</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.09664</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.0002800000000000025</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -4931,51 +5463,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731792932.5911129</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731792932.7560062</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792932.5911129.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792932.7560062.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.09672000000000001</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.0005599999999999911</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -4983,95 +5521,107 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731792932.7849226</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731792932.7849226.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731792932.7849226.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.09784000000000001</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.09784000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.09762</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0002200000000000119</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731792933.716171</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731792933.783681</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792933.716171.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792933.783681.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2980.25</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2988.65</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>8.400000000000091</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -5079,51 +5629,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731792933.8120015</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731792933.984174</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792933.8120015.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792933.984174.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2991.85</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2980.45</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>11.40000000000009</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5131,51 +5687,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731792934.0008569</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731792934.2871594</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792934.0008569.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792934.2871594.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2980.45</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2982.25</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>1.800000000000182</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5183,51 +5745,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731792934.5545855</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731792942.5770245</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792934.5545855.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792942.5770245.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2990.75</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>3012.2</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-21.44999999999982</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -5235,51 +5803,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731792942.6176474</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731792942.8675985</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792942.6176474.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792942.8675985.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>3009.25</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>3015.45</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>6.199999999999818</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -5287,51 +5861,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731792943.579069</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731792943.9516509</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792943.579069.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792943.9516509.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>3019.1</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>3013.35</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>5.75</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -5339,95 +5919,107 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731792944.0269783</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731792944.0269783.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731792944.0269783.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>3021.8</v>
       </c>
-      <c r="J97" t="n">
-        <v>3021.8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>3023.35</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-1.549999999999727</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731792944.4096186</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731792945.2960963</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792944.4096186.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792945.2960963.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>34.45</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>34.45</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5435,51 +6027,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731792948.0020657</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731792950.4990406</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792948.0020657.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792950.4990406.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>34.63</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>34.625</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5487,95 +6085,107 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731792952.2192533</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731792952.2192533.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731792952.2192533.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>34.66</v>
       </c>
-      <c r="J100" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>34.55</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731792954.8686876</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731792955.2578485</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792954.8686876.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792955.2578485.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>646.7</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>647.6</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -5583,51 +6193,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731792955.3261878</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731792955.8582745</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792955.3261878.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792955.8582745.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>644.9</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>649.2</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>4.300000000000068</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -5635,51 +6251,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731792956.0922883</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731792956.6739273</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792956.0922883.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792956.6739273.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>650.5</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>647.4</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>3.100000000000023</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -5687,51 +6309,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731792960.8254037</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731792960.9294899</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792960.8254037.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792960.9294899.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>649.4</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>648</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -5739,51 +6367,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731792961.0232809</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731792961.2851627</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792961.0232809.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792961.2851627.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>647.4</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>648.5</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5791,51 +6425,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731792961.4505954</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731792962.2323642</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792961.4505954.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792962.2323642.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>649.4</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>648.7</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.6999999999999318</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -5843,44 +6483,50 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731792962.4895408</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731792962.4895408.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731792962.4895408.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>647.5</v>
       </c>
-      <c r="J107" t="n">
-        <v>647.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>639.4</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-8.100000000000023</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-1.25</v>
       </c>
     </row>
   </sheetData>
@@ -5941,16 +6587,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.40000000000032</v>
+        <v>32.20000000000027</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.240000000000032</v>
+        <v>3.220000000000027</v>
       </c>
       <c r="E2" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="F2" t="n">
         <v>0.23</v>
@@ -5963,19 +6609,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.020000000000003</v>
+        <v>1.07</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1133333333333337</v>
+        <v>0.1188888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -6007,19 +6653,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.10000000000036</v>
+        <v>10.55000000000064</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.728571428571481</v>
+        <v>1.507142857142948</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -6029,19 +6675,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.700000000000045</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.385714285714292</v>
+        <v>0.2285714285714318</v>
       </c>
       <c r="E6" t="n">
-        <v>1.51</v>
+        <v>0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -6051,19 +6697,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.600000000000023</v>
+        <v>9.750000000000057</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.371428571428575</v>
+        <v>1.392857142857151</v>
       </c>
       <c r="E7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="F7" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -6073,19 +6719,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.099999999999966</v>
+        <v>0.8199999999999932</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1833333333333277</v>
+        <v>0.1366666666666655</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -6139,19 +6785,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001779999999999976</v>
+        <v>0.001999999999999988</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002966666666666627</v>
+        <v>0.0003333333333333313</v>
       </c>
       <c r="E11" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="F11" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
@@ -6183,19 +6829,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6900000000000546</v>
+        <v>-0.3499999999999091</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1380000000000109</v>
+        <v>-0.06999999999998181</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14">
@@ -6205,19 +6851,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.17999999999995</v>
+        <v>6.63999999999993</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>1.23599999999999</v>
+        <v>1.327999999999986</v>
       </c>
       <c r="E14" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="F14" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15">
@@ -6249,19 +6895,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.9399999999999977</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2349999999999994</v>
+        <v>-0.2699999999999996</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.7400000000000001</v>
+        <v>-0.8500000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="17">
@@ -6271,19 +6917,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.560000000000002</v>
+        <v>1.659999999999997</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.4149999999999991</v>
       </c>
       <c r="E17" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
@@ -6293,19 +6939,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005000000000002558</v>
+        <v>-0.1049999999999969</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001666666666667519</v>
+        <v>-0.03499999999999896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01</v>
+        <v>-0.31</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="19">
@@ -6315,19 +6961,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3099999999999952</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1033333333333317</v>
+        <v>0.1199999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="F19" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
